--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3578093.567856643</v>
+        <v>3576205.986340242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09874051260380838</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>273.0065037122686</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>196.8405671533556</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>120.2570633735995</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.983388191319154</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.67056468630145</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9765264254024</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2056,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151923</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0424879565124</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>89.15058872626281</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>206.8064269214862</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>122.6519788371603</v>
+        <v>8.525532102718971</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>46.18719652447291</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>179.0205566759042</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>78.6753126994755</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437433</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357151</v>
+        <v>46.15337586178324</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523592</v>
+        <v>54.76109577523588</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952711</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235379</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274026</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.049353126703</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.049353126703</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.049353126703</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.049353126703</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.049353126703</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.280697856589</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.280697856589</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.141365880777</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>433.0775852377275</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1112.882134442039</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>754.6164358352887</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>343.6305310456812</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>329.7071269842721</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.114058152426</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.051170808855</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.282515538741</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.816757277661</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.6774253018493</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341679</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1428.541962793963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1228.621952709515</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1228.621952709515</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U13" t="n">
-        <v>939.4933139230731</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V13" t="n">
-        <v>939.4933139230731</v>
+        <v>420.3226148324577</v>
       </c>
       <c r="W13" t="n">
-        <v>650.0761438861125</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="X13" t="n">
-        <v>650.0761438861125</v>
+        <v>130.9054447954971</v>
       </c>
       <c r="Y13" t="n">
-        <v>429.2835647425823</v>
+        <v>130.9054447954972</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,49 +5273,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011508</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515098</v>
@@ -5528,7 +5528,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341678</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,34 +5747,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2170914602859</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X22" t="n">
-        <v>318.009670603816</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.2170914602859</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1375.025382843599</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>318.009670603816</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.9005583181187</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>441.9005583181187</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>291.7839189057829</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>143.8708253233898</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>143.8708253233898</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6415,19 +6415,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609661</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550792</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181187</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181187</v>
+        <v>757.7241344124301</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181187</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1999.905696641086</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542158</v>
+        <v>439.532429954216</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264627</v>
+        <v>439.532429954216</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264627</v>
+        <v>439.532429954216</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264627</v>
+        <v>347.3802016531935</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>256.2511194366537</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>143.8366630378447</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>143.8366630378447</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.251007986467</v>
@@ -6628,16 +6628,16 @@
         <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056073</v>
@@ -6646,10 +6646,10 @@
         <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
         <v>1335.260356661997</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818907</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652439</v>
+        <v>730.4517433652445</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030848</v>
+        <v>565.4200295030851</v>
       </c>
     </row>
     <row r="32">
@@ -6677,67 +6677,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,19 +7114,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229567</v>
+        <v>171.296688329925</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445211</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>176.7176547498444</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>50.6266194094361</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229571</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305221</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>171.2966883299256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627462</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,10 +10902,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615217</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>146.4805103800781</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.29378771749129</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.7331289636347</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.54216539558233</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.7702212573404</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>79.43092547709117</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.26883114644293</v>
+        <v>189.3952778808843</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>120.3063719389047</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>39.56409667619056</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>33.36825177059544</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.062612973931842</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719067.6783196545</v>
+        <v>719067.6783196544</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409909</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542227</v>
+        <v>711938.7403542232</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="O2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312484</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284553</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086703</v>
+        <v>10342.906800867</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007383</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600742</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600742</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020397</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.457362627</v>
+        <v>-102332.4573626268</v>
       </c>
       <c r="C6" t="n">
+        <v>487635.4218519178</v>
+      </c>
+      <c r="D6" t="n">
         <v>487635.4218519175</v>
       </c>
-      <c r="D6" t="n">
-        <v>487635.4218519178</v>
-      </c>
       <c r="E6" t="n">
-        <v>59236.76045936988</v>
+        <v>59139.30133339789</v>
       </c>
       <c r="F6" t="n">
-        <v>584396.7969362666</v>
+        <v>584299.3378102944</v>
       </c>
       <c r="G6" t="n">
-        <v>584396.7969362666</v>
+        <v>584299.3378102942</v>
       </c>
       <c r="H6" t="n">
-        <v>584396.7969362666</v>
+        <v>584299.3378102942</v>
       </c>
       <c r="I6" t="n">
-        <v>584396.7969362659</v>
+        <v>584299.3378102947</v>
       </c>
       <c r="J6" t="n">
-        <v>407973.5777436732</v>
+        <v>407876.1186177009</v>
       </c>
       <c r="K6" t="n">
-        <v>545066.5723509504</v>
+        <v>545048.0786130165</v>
       </c>
       <c r="L6" t="n">
-        <v>580018.0171130275</v>
+        <v>580018.0171130282</v>
       </c>
       <c r="M6" t="n">
-        <v>455559.9086800576</v>
+        <v>455559.9086800577</v>
       </c>
       <c r="N6" t="n">
-        <v>590360.9239138953</v>
+        <v>590360.923913895</v>
       </c>
       <c r="O6" t="n">
-        <v>590360.9239138949</v>
+        <v>590360.923913895</v>
       </c>
       <c r="P6" t="n">
-        <v>546198.3186110494</v>
+        <v>546198.3186110496</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.3796620622079</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>50.91626905208858</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>54.38360035493375</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>92.89577304195201</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>166.2659349629915</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>168.4323246176524</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698772</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>46.76331713866857</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.936955798779477e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.061081734498856e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879394</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560246</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734233</v>
+        <v>481.7210653803914</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415667</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879393</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>509.9122281478574</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>299.8843243654604</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734236</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>274.915516674262</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541604</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>453.6603905710338</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541859</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941224</v>
+        <v>67.71102679412243</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584674</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043163</v>
+        <v>94.42895660043166</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,19 +37391,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>353.0984438117331</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
